--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\SwagLabs\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD96C9E-AA40-474D-8FF1-7F545956557B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE34E1-0AD3-4B08-BDF0-9B2A85CD98C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{27861ACC-A8FE-4019-8E56-E2C2A9C4EF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{27861ACC-A8FE-4019-8E56-E2C2A9C4EF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="UserStory" sheetId="3" r:id="rId2"/>
-    <sheet name="SwagLabsLoginPage" sheetId="2" r:id="rId3"/>
-    <sheet name="SwagLabsInventoryPage" sheetId="4" r:id="rId4"/>
+    <sheet name="checkout" sheetId="5" r:id="rId2"/>
+    <sheet name="UserStory" sheetId="3" r:id="rId3"/>
+    <sheet name="SwagLabsLoginPage" sheetId="2" r:id="rId4"/>
+    <sheet name="SwagLabsInventoryPage" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
   <si>
     <t>standard_user</t>
   </si>
@@ -293,6 +294,21 @@
   </si>
   <si>
     <t>rgergarfggergr</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -374,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
@@ -423,6 +439,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF5C63AE-D27B-4F7E-863C-7920E0738823}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,6 +817,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32979A-A6AE-4C20-B084-62F55BF14469}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF0A591-635B-4586-B45C-9706A766FCAC}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -889,7 +962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F38940-804C-46FD-9D49-8972C6DD36B2}">
   <dimension ref="A1:I81"/>
   <sheetViews>
@@ -1371,7 +1444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B784560-6C90-48F6-84F5-E73FEDF33A7C}">
   <dimension ref="A1:I51"/>
   <sheetViews>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpace\SwagLabs\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE34E1-0AD3-4B08-BDF0-9B2A85CD98C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D68923-A85E-46E9-A5D9-38FCC458A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{27861ACC-A8FE-4019-8E56-E2C2A9C4EF4B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{27861ACC-A8FE-4019-8E56-E2C2A9C4EF4B}"/>
   </bookViews>
   <sheets>
     <sheet name="credentials" sheetId="1" r:id="rId1"/>
     <sheet name="checkout" sheetId="5" r:id="rId2"/>
-    <sheet name="UserStory" sheetId="3" r:id="rId3"/>
-    <sheet name="SwagLabsLoginPage" sheetId="2" r:id="rId4"/>
-    <sheet name="SwagLabsInventoryPage" sheetId="4" r:id="rId5"/>
+    <sheet name="writeToExel" sheetId="6" r:id="rId3"/>
+    <sheet name="UserStory" sheetId="3" r:id="rId4"/>
+    <sheet name="SwagLabsLoginPage" sheetId="2" r:id="rId5"/>
+    <sheet name="SwagLabsInventoryPage" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -820,7 +821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B32979A-A6AE-4C20-B084-62F55BF14469}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -868,11 +869,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C83483-E663-4E3E-B0D5-3DD6B322416A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF0A591-635B-4586-B45C-9706A766FCAC}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,88 +894,88 @@
     <col min="2" max="2" width="117.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="6" spans="1:2" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
-    <row r="18" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:2" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F38940-804C-46FD-9D49-8972C6DD36B2}">
   <dimension ref="A1:I81"/>
   <sheetViews>
@@ -1444,7 +1457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B784560-6C90-48F6-84F5-E73FEDF33A7C}">
   <dimension ref="A1:I51"/>
   <sheetViews>
